--- a/documenten/MVP herziening 2-11-2021.xlsx
+++ b/documenten/MVP herziening 2-11-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Bureaublad\Huwelijksplanner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masse202\Documents\Common Ground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37D2636-9420-4949-97C4-ACF3215D4415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6175AD06-0F79-4722-AC18-A10F8CF876F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D7BCD806-0C2C-46B7-A5F3-A885FBE75FCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D7BCD806-0C2C-46B7-A5F3-A885FBE75FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
   <si>
     <t>MVP?</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Conduction dashboard? Geen mail met inhoud, mogelijk met deeplink naar dashboard</t>
   </si>
   <si>
-    <t>Afhandeling melding vanuit ontvangen reservering. Inclusief de notificaties richting inwoner die bij het afhandelproces horen. (Afhandeling in Key2 zoals het nu gaat)</t>
-  </si>
-  <si>
     <t>Afhandeling aanvraag Naamgebruik in het medewerkersdashboard: inclusief de notificaties richting inwoner die bij het afhandelproces horen.</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Assistenten planning op de huidige wijze buiten huwelijksplanner om</t>
   </si>
   <si>
-    <t xml:space="preserve">In het dashboard moet een medewerker een reservering kunnen doen voor een inwoner. Of een bestaande reservering kunnen wijzigen. </t>
-  </si>
-  <si>
     <t>Terugbetaalproces</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t xml:space="preserve">Het huidige proces blijft in stand en gaat lopen na een notificatie naar de medewerker vanuit de huwelijksplanner. </t>
   </si>
   <si>
-    <t xml:space="preserve">Een medewerker moet een notificatie krijgen als er geld terugbetaald moet worden aan de burger na het wijzigen of annuleren van een reservering. Het terugbetaalproces zelf verloopt volgens het huidige proces. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dit moet correct ingesteld zijn voor flits, eenvoudig en gratis huwelijk door developer en moet aanpasbaar zijn door developer. </t>
   </si>
   <si>
@@ -322,14 +313,53 @@
     <t>Wijzigen van contactgegevens, wijzigen of toevoegen van getuigen en toevoegen van extra's</t>
   </si>
   <si>
-    <t>Medewerker moet een maximum aantal reserveringen op een dag kunnen aangeven en kunnen wijzigen, zodat er niet meer reserveringen worden gedaan dan er babsen zijn.</t>
+    <t>wens vanuit de businessexperts = voor de MVP een 'nice to have'</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Medewerker moet een maximum aantal reserveringen op een dag kunnen aangeven en kunnen wijzigen, zodat er niet meer reserveringen worden gedaan dan er babsen zijn. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>N.B. al een jaar vooruit moet rekenin ggehouden worden met de agenda van de trouwambtenaren</t>
+    </r>
+  </si>
+  <si>
+    <t>Afhandeling melding vanuit ontvangen reservering. Inclusief de notificaties richting inwoner die bij het afhandelproces horen. (Afhandeling in Key2 zoals het nu gaat)  -&gt; medewerker geeft bij de reservering aan of melding voorgenomen huwelijk akkoord is. Resultaat wordt teruggekoppeld aan trouwstel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In het dashboard moet een medewerker een reservering kunnen doen voor een inwoner. Of een bestaande reservering kunnen wijzigen / annuleren. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Een medewerker moet een mail notificatie krijgen als er geld terugbetaald moet worden aan de burger na het wijzigen of annuleren van een reservering. Het terugbetaalproces zelf verloopt volgens het huidige proces. </t>
+  </si>
+  <si>
+    <t>Wellicht al op te lossen vanuit de ADFS koppeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koppeling met Ingenico </t>
+  </si>
+  <si>
+    <t>Koppeling met SAP -&gt; via SAP service</t>
+  </si>
+  <si>
+    <t>OpenID connect koppeling -&gt; koppelen aan Keycloak.</t>
+  </si>
+  <si>
+    <t>Front end koppelt op de trouwservice. Trouwservice communiceert met achterliggende API's</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +418,13 @@
       <b/>
       <sz val="8"/>
       <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -884,20 +921,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7145FBF-4ADB-47E9-8B80-E2022F926048}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="92.453125" style="41" customWidth="1"/>
+    <col min="1" max="1" width="92.42578125" style="41" customWidth="1"/>
     <col min="2" max="2" width="9" style="8" customWidth="1"/>
-    <col min="3" max="3" width="104.90625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.6328125" style="8"/>
+    <col min="3" max="3" width="104.85546875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37"/>
       <c r="B1" s="17" t="s">
         <v>0</v>
@@ -906,30 +943,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" s="10" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -938,7 +975,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -947,7 +984,7 @@
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
@@ -956,16 +993,16 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
@@ -974,7 +1011,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
@@ -983,7 +1020,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" s="13" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
@@ -994,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="13" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +1042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="44" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>13</v>
       </c>
@@ -1013,10 +1050,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
         <v>14</v>
       </c>
@@ -1025,25 +1062,25 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:3" s="44" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="11" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
@@ -1063,7 +1100,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
@@ -1072,7 +1109,7 @@
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
@@ -1083,18 +1120,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>6</v>
@@ -1103,27 +1140,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="26"/>
     </row>
-    <row r="24" spans="1:3" s="30" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="1:3" s="9" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="28"/>
     </row>
-    <row r="26" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="31" t="s">
         <v>23</v>
       </c>
@@ -1132,18 +1169,18 @@
       </c>
       <c r="C26" s="32"/>
     </row>
-    <row r="27" spans="1:3" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
     </row>
-    <row r="28" spans="1:3" s="9" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
     </row>
-    <row r="29" spans="1:3" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
         <v>25</v>
       </c>
@@ -1154,9 +1191,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="13" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>6</v>
@@ -1165,449 +1202,463 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="11" customFormat="1" ht="23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="B32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="5" t="s">
+    </row>
+    <row r="34" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" s="44" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="42" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" s="13" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" s="13" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="B39" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="43"/>
+    </row>
+    <row r="40" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="B40" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A43" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="1:3" s="44" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="43"/>
-    </row>
-    <row r="40" spans="1:3" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="4" t="s">
+    </row>
+    <row r="45" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" s="11" customFormat="1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:3" s="44" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
-        <v>38</v>
-      </c>
       <c r="B45" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="36"/>
     </row>
-    <row r="46" spans="1:3" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
     </row>
-    <row r="47" spans="1:3" s="9" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B47" s="27"/>
       <c r="C47" s="28"/>
     </row>
-    <row r="48" spans="1:3" s="13" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" s="13" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="B49" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="13" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+    </row>
+    <row r="51" spans="1:3" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="B51" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A52" s="21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" s="13" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+      <c r="B52" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="15" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="B53" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="13" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+    </row>
+    <row r="54" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="6" t="s">
+      <c r="B55" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" s="13" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
+      <c r="B56" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="13" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" s="14" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="23"/>
       <c r="B57" s="23"/>
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3" s="9" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="20" t="s">
+      <c r="B61" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
-        <v>56</v>
-      </c>
       <c r="B62" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
     </row>
-    <row r="64" spans="1:3" s="9" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B64" s="27"/>
       <c r="C64" s="28"/>
     </row>
-    <row r="65" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
+      <c r="B68" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="10" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
+      <c r="B70" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B68" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="1:3" s="10" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="34" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
     </row>
-    <row r="72" spans="1:3" s="9" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B72" s="27"/>
       <c r="C72" s="28"/>
     </row>
-    <row r="73" spans="1:3" s="11" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="20" t="s">
+    </row>
+    <row r="75" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B74" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" s="12" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
-        <v>67</v>
-      </c>
       <c r="B75" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="36"/>
     </row>
-    <row r="76" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="39"/>
     </row>
-    <row r="77" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="40"/>
     </row>
-    <row r="78" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-    </row>
-    <row r="79" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="42"/>
+      <c r="C78" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="40"/>
     </row>
-    <row r="80" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C23" xr:uid="{E7145FBF-4ADB-47E9-8B80-E2022F926048}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>